--- a/biology/Botanique/Calycanthaceae/Calycanthaceae.xlsx
+++ b/biology/Botanique/Calycanthaceae/Calycanthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Calycanthaceae (en français Calycanthacées), regroupe des plantes angiospermes de divergence ancienne, qui comprend une demi-douzaine d'espèces réparties en 3 ou 4 genres.
 Ce sont de petits arbres, ou des arbustes producteurs d'huiles essentielles des régions tempérées à subtropicales d'Extrême-Orient et d'Amérique du Nord.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Calycanthus lui-même issu du grec ancien κάλυξ kalyx, calice et ἄνθος anthos, fleur[1] en référence à la forme des fleurs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Calycanthus lui-même issu du grec ancien κάλυξ kalyx, calice et ἄνθος anthos, fleur en référence à la forme des fleurs.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre les genres Calycanthus, Chimonanthus, Sinocalycanthus la classification phylogénétique incorpore à cette famille celle des Idiospermaceae (genre Idiospermum).
 </t>
@@ -575,23 +591,25 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (14 août 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (14 août 2015) :
 genre Calycanthus L.
 genre Chimonanthus Lindl.
 genre Idiospermum S.T.Blake
 genre Sinocalycanthus (W.C.Cheng &amp; S.Y.Chang) W.C.Cheng &amp; S.Y.Chang
-Selon NCBI  (14 août 2015)[3] :
+Selon NCBI  (14 août 2015) :
 genre Calycanthus
 genre Chimonanthus
 sous-famille Idiospermoideae
 genre Idiospermum
-Selon DELTA Angio           (14 août 2015)[4] :
+Selon DELTA Angio           (14 août 2015) :
 genre Calycanthus
 genre Chimonanthus
 genre Sinocalycanthus
-Selon ITIS      (14 août 2015)[5] :
+Selon ITIS      (14 août 2015) :
 genre Calycanthus L.</t>
         </is>
       </c>
@@ -620,9 +638,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 avr. 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 avr. 2010) :
 genre Calycanthus
 Calycanthus chinensis
 Calycanthus floridus
